--- a/细节优化-190520不再更新/工作清单/智造组各工程师月度工作情况(2019-10郑振彪).xlsx
+++ b/细节优化-190520不再更新/工作清单/智造组各工程师月度工作情况(2019-10郑振彪).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B53058-23C5-410E-88DC-07FFFD3D8FE8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C27CA36-DD30-40ED-9202-D24FEE55B5BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3435" yWindow="2040" windowWidth="21600" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,6 +117,14 @@
   </si>
   <si>
     <t>生产管控的FQC详情/老化详情/校正详情/电检详情 增加挪用模组关系列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增个人权限查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产管控增加小样报告跳转</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -715,8 +723,8 @@
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1014,18 +1022,20 @@
       <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="9"/>
+      <c r="B14" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="C14" s="8">
-        <v>43757</v>
+        <v>43760</v>
       </c>
       <c r="D14" s="8">
-        <v>43757</v>
+        <v>43761</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="8">
-        <v>43757</v>
+        <v>43761</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="10"/>
@@ -1034,18 +1044,20 @@
       <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="B15" s="12"/>
+      <c r="B15" s="12" t="s">
+        <v>27</v>
+      </c>
       <c r="C15" s="8">
-        <v>43758</v>
+        <v>43761</v>
       </c>
       <c r="D15" s="8">
-        <v>43758</v>
+        <v>43761</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="8">
-        <v>43758</v>
+        <v>43761</v>
       </c>
       <c r="H15" s="10"/>
     </row>
@@ -1053,9 +1065,7 @@
       <c r="A16" s="4">
         <v>14</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>22</v>
-      </c>
+      <c r="B16" s="9"/>
       <c r="C16" s="8">
         <v>43759</v>
       </c>
@@ -1115,7 +1125,9 @@
       <c r="A19" s="4">
         <v>17</v>
       </c>
-      <c r="B19" s="9"/>
+      <c r="B19" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="C19" s="8">
         <v>43762</v>
       </c>

--- a/细节优化-190520不再更新/工作清单/智造组各工程师月度工作情况(2019-10郑振彪).xlsx
+++ b/细节优化-190520不再更新/工作清单/智造组各工程师月度工作情况(2019-10郑振彪).xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C27CA36-DD30-40ED-9202-D24FEE55B5BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3C05A6-8D09-4CAA-9282-DEACA38E5461}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3435" yWindow="2040" windowWidth="21600" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="姓名" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,9 +68,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>进行中</t>
-  </si>
-  <si>
     <t>增加条码信息查询</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -105,9 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>工序产能 总表优先</t>
-  </si>
-  <si>
     <t>生产管控和各个工段的不同入口增加跳转和改变个别跳转方法至订单概况和条码详情</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -125,6 +119,17 @@
   </si>
   <si>
     <t>生产管控增加小样报告跳转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作查看页PDA和PC区分显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外观电检更新  新增挪用后不校正且条码表已有模组号处理方法</t>
+  </si>
+  <si>
+    <t>校正提前验证是否需要重复校正，简化流程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -723,8 +728,8 @@
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -781,7 +786,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="8">
         <v>43735</v>
@@ -803,7 +808,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="8">
         <v>43735</v>
@@ -825,7 +830,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="8">
         <v>43748</v>
@@ -847,7 +852,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" s="8">
         <v>43748</v>
@@ -869,7 +874,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="8">
         <v>43749</v>
@@ -891,7 +896,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="8">
         <v>43749</v>
@@ -913,7 +918,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="8">
         <v>43749</v>
@@ -922,7 +927,7 @@
         <v>43750</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F9" s="8">
         <v>43750</v>
@@ -935,7 +940,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="8">
         <v>43750</v>
@@ -957,7 +962,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" s="8">
         <v>43754</v>
@@ -979,7 +984,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" s="8">
         <v>43754</v>
@@ -1001,7 +1006,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="8">
         <v>43755</v>
@@ -1010,7 +1015,7 @@
         <v>43755</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F13" s="8">
         <v>43755</v>
@@ -1023,7 +1028,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" s="8">
         <v>43760</v>
@@ -1045,7 +1050,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C15" s="8">
         <v>43761</v>
@@ -1054,7 +1059,7 @@
         <v>43761</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F15" s="8">
         <v>43761</v>
@@ -1065,7 +1070,9 @@
       <c r="A16" s="4">
         <v>14</v>
       </c>
-      <c r="B16" s="9"/>
+      <c r="B16" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="C16" s="8">
         <v>43759</v>
       </c>
@@ -1073,7 +1080,7 @@
         <v>43759</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F16" s="8">
         <v>43759</v>
@@ -1085,7 +1092,9 @@
       <c r="A17" s="4">
         <v>15</v>
       </c>
-      <c r="B17" s="9"/>
+      <c r="B17" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="C17" s="8">
         <v>43760</v>
       </c>
@@ -1093,7 +1102,7 @@
         <v>43760</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F17" s="8">
         <v>43760</v>
@@ -1105,18 +1114,20 @@
       <c r="A18" s="4">
         <v>16</v>
       </c>
-      <c r="B18" s="9"/>
+      <c r="B18" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="C18" s="8">
-        <v>43761</v>
+        <v>43767</v>
       </c>
       <c r="D18" s="8">
-        <v>43761</v>
+        <v>43767</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" s="8">
-        <v>43761</v>
+        <v>43767</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="10"/>
@@ -1125,9 +1136,7 @@
       <c r="A19" s="4">
         <v>17</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>22</v>
-      </c>
+      <c r="B19" s="9"/>
       <c r="C19" s="8">
         <v>43762</v>
       </c>
